--- a/PostgreSQL/data/xlsx/OdbYP3-2024_Organization.xlsx
+++ b/PostgreSQL/data/xlsx/OdbYP3-2024_Organization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlebu\YandexDisk\NikoirDevelopment\YP3-2024\PostgreSQL\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlebu\YandexDisk\NikoirDevelopment\YP3-2024\PostgreSQL\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411E5434-39DC-4F0D-8606-E7A1B0F15483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B27407-E652-481B-BD9D-1156A2AFFFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="16629" xr2:uid="{E82854C7-5098-4230-963A-5CAD9B2F4516}"/>
+    <workbookView xWindow="2657" yWindow="2657" windowWidth="20572" windowHeight="11992" xr2:uid="{E82854C7-5098-4230-963A-5CAD9B2F4516}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Title</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Юридический департамент</t>
-  </si>
-  <si>
-    <t>OrganizationID</t>
   </si>
 </sst>
 </file>
@@ -116,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,10 +122,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -149,21 +146,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -176,51 +158,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -244,30 +183,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -288,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -434,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,119 +511,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5DC814-52F9-4C60-8941-5C59FF630B35}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
+    <row r="2" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    </row>
+    <row r="4" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    </row>
+    <row r="6" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+    </row>
+    <row r="11" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+    </row>
+    <row r="12" spans="1:1" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="13" spans="1:1" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
